--- a/BackTest/2019-10-31 BackTest HYC.xlsx
+++ b/BackTest/2019-10-31 BackTest HYC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1992041.431710826</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>-1976638.938210826</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5.68</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>-1976638.938210826</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5.7</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>-1968829.823510826</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.7</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,7 +601,7 @@
         <v>-2334228.788310826</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>5.72</v>
@@ -591,7 +609,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L6" t="n">
@@ -622,9 +640,11 @@
         <v>-2292725.911610826</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.7</v>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
@@ -659,9 +679,11 @@
         <v>-1946331.779510826</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5.71</v>
+      </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
@@ -696,9 +718,11 @@
         <v>-1946321.779510826</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5.78</v>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -733,9 +757,11 @@
         <v>-1946321.779510826</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5.82</v>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
@@ -1029,16 +1055,18 @@
         <v>-2395260.418110826</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
       <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -1068,7 +1096,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1097,11 +1129,17 @@
         <v>-2534452.060910826</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5.67</v>
+      </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1130,11 +1168,17 @@
         <v>-2517471.500510826</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1163,11 +1207,17 @@
         <v>-2519610.723110826</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5.71</v>
+      </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1196,11 +1246,17 @@
         <v>-2509610.723110826</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>5.67</v>
+      </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1229,11 +1285,17 @@
         <v>-2502298.005340792</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>5.71</v>
+      </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1262,11 +1324,17 @@
         <v>-2502098.005340792</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>5.74</v>
+      </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1295,11 +1363,17 @@
         <v>-2689750.153540792</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>5.75</v>
+      </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1328,11 +1402,17 @@
         <v>-2689684.419740792</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5.68</v>
+      </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1361,11 +1441,17 @@
         <v>-2690108.419740792</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>5.71</v>
+      </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1394,11 +1480,17 @@
         <v>-2690108.419740792</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>5.67</v>
+      </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1427,11 +1519,17 @@
         <v>-2690108.419740792</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>5.67</v>
+      </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1460,15 +1558,17 @@
         <v>-2690039.419740792</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>5.67</v>
       </c>
-      <c r="J31" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1497,17 +1597,15 @@
         <v>-2690039.419740792</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>5.68</v>
       </c>
-      <c r="J32" t="n">
-        <v>5.67</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L32" t="n">
@@ -1538,17 +1636,15 @@
         <v>-2690039.419740792</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>5.68</v>
       </c>
-      <c r="J33" t="n">
-        <v>5.67</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L33" t="n">
@@ -1579,15 +1675,17 @@
         <v>-2675747.253740792</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>5.68</v>
       </c>
-      <c r="J34" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1616,17 +1714,15 @@
         <v>-2627350.748040792</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>5.71</v>
       </c>
-      <c r="J35" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L35" t="n">
@@ -1657,17 +1753,15 @@
         <v>-2627064.748040792</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>5.73</v>
       </c>
-      <c r="J36" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L36" t="n">
@@ -1698,11 +1792,17 @@
         <v>-2627064.748040792</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>5.74</v>
+      </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1731,11 +1831,17 @@
         <v>-2627064.748040792</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>5.74</v>
+      </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1764,11 +1870,17 @@
         <v>-2677642.732240792</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>5.74</v>
+      </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1797,11 +1909,17 @@
         <v>-2668947.080066879</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>5.7</v>
+      </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1830,7 +1948,7 @@
         <v>-2546296.126840792</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>5.75</v>
@@ -1838,7 +1956,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L41" t="n">
@@ -1869,9 +1987,11 @@
         <v>-2257265.671540792</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>5.77</v>
+      </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
@@ -1906,9 +2026,11 @@
         <v>-2257255.671540792</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>5.8</v>
+      </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
@@ -1943,9 +2065,11 @@
         <v>-2581762.892740792</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>5.87</v>
+      </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
@@ -1980,9 +2104,11 @@
         <v>-2766223.464440792</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>5.8</v>
+      </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
@@ -2017,9 +2143,11 @@
         <v>-2771429.554540792</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>5.74</v>
+      </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -2054,9 +2182,11 @@
         <v>-2717397.415540792</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>5.72</v>
+      </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -2091,9 +2221,11 @@
         <v>-2717377.415540792</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>5.78</v>
+      </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -2128,9 +2260,11 @@
         <v>-2717367.415540792</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>5.8</v>
+      </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -2165,9 +2299,11 @@
         <v>-2728071.495940792</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>5.81</v>
+      </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
@@ -2202,9 +2338,11 @@
         <v>-2418484.871440792</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>5.8</v>
+      </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
@@ -2239,9 +2377,11 @@
         <v>-2470984.871440792</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>5.88</v>
+      </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
@@ -2350,16 +2490,18 @@
         <v>4129277.229691788</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
       <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
@@ -2385,11 +2527,15 @@
         <v>3924694.959791787</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2418,11 +2564,15 @@
         <v>5892533.468091788</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2451,11 +2601,15 @@
         <v>4392712.663591787</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2484,11 +2638,15 @@
         <v>5125567.346691787</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2517,11 +2675,15 @@
         <v>4626169.303891787</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2550,11 +2712,15 @@
         <v>5413151.939191788</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2583,11 +2749,15 @@
         <v>7547032.729691788</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2616,11 +2786,15 @@
         <v>5820710.289091787</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2649,11 +2823,15 @@
         <v>4090457.895191787</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2682,11 +2860,15 @@
         <v>4796594.290896162</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2715,11 +2897,15 @@
         <v>5803068.358196163</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2748,11 +2934,15 @@
         <v>5639545.770596162</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2781,11 +2971,15 @@
         <v>5305264.848896163</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2814,11 +3008,15 @@
         <v>5687233.567096163</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2847,11 +3045,15 @@
         <v>4851139.961096163</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2880,11 +3082,15 @@
         <v>4801940.902196163</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2913,11 +3119,15 @@
         <v>4730768.237996163</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2946,11 +3156,15 @@
         <v>4285215.459996163</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2979,11 +3193,15 @@
         <v>5047483.814496163</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3016,7 +3234,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3045,11 +3267,15 @@
         <v>4728505.436496164</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3082,7 +3308,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3111,11 +3341,15 @@
         <v>4728475.436496164</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3144,11 +3378,15 @@
         <v>4750217.963796164</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3177,11 +3415,15 @@
         <v>4750217.963796164</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3210,11 +3452,15 @@
         <v>4740142.832996164</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3243,11 +3489,15 @@
         <v>4740152.832996164</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3276,11 +3526,15 @@
         <v>4709301.371996163</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3309,11 +3563,15 @@
         <v>4709301.371996163</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3342,11 +3600,15 @@
         <v>4458273.104796164</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3379,7 +3641,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3412,7 +3678,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3445,7 +3715,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3478,7 +3752,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3507,11 +3785,15 @@
         <v>4292224.724096164</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3540,14 +3822,16 @@
         <v>4292214.724096164</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
@@ -3639,7 +3923,7 @@
         <v>4364948.757696164</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3672,7 +3956,7 @@
         <v>4295691.920496164</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3738,7 +4022,7 @@
         <v>4041795.046596164</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3771,7 +4055,7 @@
         <v>3786332.902596164</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3903,7 +4187,7 @@
         <v>4009167.224396164</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3936,7 +4220,7 @@
         <v>4010899.264796164</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3969,7 +4253,7 @@
         <v>4006757.556696164</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4002,7 +4286,7 @@
         <v>3815719.482296164</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4035,7 +4319,7 @@
         <v>3834363.173566471</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4068,7 +4352,7 @@
         <v>3834363.173566471</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4101,7 +4385,7 @@
         <v>3834802.048766471</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4134,7 +4418,7 @@
         <v>3625554.960566471</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4167,7 +4451,7 @@
         <v>3625212.410766471</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4200,7 +4484,7 @@
         <v>3484429.554566471</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4497,7 +4781,7 @@
         <v>3338717.326566471</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4607,6 +4891,6 @@
       <c r="M123" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest HYC.xlsx
+++ b/BackTest/2019-10-31 BackTest HYC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1992041.431710826</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>-1976638.938210826</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>-1976638.938210826</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,17 +550,11 @@
         <v>-1968829.823510826</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,17 +583,11 @@
         <v>-2334228.788310826</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -640,17 +616,11 @@
         <v>-2292725.911610826</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -679,17 +649,11 @@
         <v>-1946331.779510826</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -718,17 +682,11 @@
         <v>-1946321.779510826</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -757,17 +715,11 @@
         <v>-1946321.779510826</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>5.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -800,11 +752,7 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -837,11 +785,7 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -874,11 +818,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -911,11 +851,7 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -948,11 +884,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -985,11 +917,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1022,11 +950,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1059,11 +983,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1096,11 +1016,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1129,17 +1045,11 @@
         <v>-2534452.060910826</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>5.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1168,17 +1078,11 @@
         <v>-2517471.500510826</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>5.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1207,17 +1111,11 @@
         <v>-2519610.723110826</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>5.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1246,17 +1144,11 @@
         <v>-2509610.723110826</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>5.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1290,12 +1182,10 @@
       <c r="I24" t="n">
         <v>5.71</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1324,15 +1214,15 @@
         <v>-2502098.005340792</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>5.71</v>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L25" t="n">
@@ -1363,15 +1253,15 @@
         <v>-2689750.153540792</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>5.71</v>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L26" t="n">
@@ -1402,17 +1292,11 @@
         <v>-2689684.419740792</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>5.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1441,17 +1325,11 @@
         <v>-2690108.419740792</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>5.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1480,17 +1358,11 @@
         <v>-2690108.419740792</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>5.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1519,17 +1391,11 @@
         <v>-2690108.419740792</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>5.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1563,12 +1429,10 @@
       <c r="I31" t="n">
         <v>5.67</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1602,10 +1466,12 @@
       <c r="I32" t="n">
         <v>5.68</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>5.67</v>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L32" t="n">
@@ -1641,10 +1507,12 @@
       <c r="I33" t="n">
         <v>5.68</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>5.67</v>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L33" t="n">
@@ -1680,12 +1548,10 @@
       <c r="I34" t="n">
         <v>5.68</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1719,10 +1585,12 @@
       <c r="I35" t="n">
         <v>5.71</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>5.68</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L35" t="n">
@@ -1758,10 +1626,12 @@
       <c r="I36" t="n">
         <v>5.73</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>5.68</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L36" t="n">
@@ -1797,12 +1667,10 @@
       <c r="I37" t="n">
         <v>5.74</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1831,15 +1699,15 @@
         <v>-2627064.748040792</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>5.74</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -1875,10 +1743,12 @@
       <c r="I39" t="n">
         <v>5.74</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>5.74</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L39" t="n">
@@ -1914,7 +1784,9 @@
       <c r="I40" t="n">
         <v>5.7</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>5.74</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1953,7 +1825,9 @@
       <c r="I41" t="n">
         <v>5.75</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>5.74</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1987,12 +1861,12 @@
         <v>-2257265.671540792</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>5.74</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2026,12 +1900,12 @@
         <v>-2257255.671540792</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>5.74</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2065,12 +1939,12 @@
         <v>-2581762.892740792</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>5.74</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2104,12 +1978,12 @@
         <v>-2766223.464440792</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>5.74</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2143,12 +2017,12 @@
         <v>-2771429.554540792</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>5.74</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2182,12 +2056,12 @@
         <v>-2717397.415540792</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>5.74</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2221,12 +2095,12 @@
         <v>-2717377.415540792</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>5.74</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2260,12 +2134,12 @@
         <v>-2717367.415540792</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>5.74</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2299,12 +2173,12 @@
         <v>-2728071.495940792</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>5.74</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2338,12 +2212,12 @@
         <v>-2418484.871440792</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>5.74</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2377,12 +2251,12 @@
         <v>-2470984.871440792</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>5.74</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2419,7 +2293,9 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>5.74</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2456,7 +2332,9 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>5.74</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2493,7 +2371,9 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>5.74</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2530,7 +2410,9 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>5.74</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2567,7 +2449,9 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>5.74</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2604,7 +2488,9 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>5.74</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2641,7 +2527,9 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>5.74</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2678,7 +2566,9 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>5.74</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2715,7 +2605,9 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>5.74</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2752,7 +2644,9 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>5.74</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2789,7 +2683,9 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>5.74</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2826,7 +2722,9 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>5.74</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2863,7 +2761,9 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>5.74</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2900,7 +2800,9 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>5.74</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2937,7 +2839,9 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>5.74</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2974,7 +2878,9 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>5.74</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3011,7 +2917,9 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>5.74</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3048,7 +2956,9 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>5.74</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3085,7 +2995,9 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>5.74</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3122,7 +3034,9 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>5.74</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3159,7 +3073,9 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>5.74</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3196,7 +3112,9 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>5.74</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3233,7 +3151,9 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>5.74</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3270,7 +3190,9 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>5.74</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3307,7 +3229,9 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>5.74</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3344,7 +3268,9 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>5.74</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3381,7 +3307,9 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>5.74</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3418,7 +3346,9 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>5.74</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3455,7 +3385,9 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>5.74</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3492,7 +3424,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>5.74</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3526,17 +3460,19 @@
         <v>4709301.371996163</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>5.74</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1</v>
+        <v>1.038554006968641</v>
       </c>
       <c r="M83" t="inlineStr"/>
     </row>
@@ -3563,15 +3499,11 @@
         <v>4709301.371996163</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3600,15 +3532,11 @@
         <v>4458273.104796164</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3637,15 +3565,11 @@
         <v>4461617.585796163</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3674,15 +3598,11 @@
         <v>4356510.263196164</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3711,15 +3631,11 @@
         <v>4292194.724096164</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3752,11 +3668,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3789,11 +3701,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3822,16 +3730,14 @@
         <v>4292214.724096164</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
       <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
@@ -3956,7 +3862,7 @@
         <v>4295691.920496164</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -4022,7 +3928,7 @@
         <v>4041795.046596164</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4220,7 +4126,7 @@
         <v>4010899.264796164</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4253,7 +4159,7 @@
         <v>4006757.556696164</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4286,7 +4192,7 @@
         <v>3815719.482296164</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4319,7 +4225,7 @@
         <v>3834363.173566471</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4352,7 +4258,7 @@
         <v>3834363.173566471</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4385,7 +4291,7 @@
         <v>3834802.048766471</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4418,7 +4324,7 @@
         <v>3625554.960566471</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4451,7 +4357,7 @@
         <v>3625212.410766471</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4484,7 +4390,7 @@
         <v>3484429.554566471</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4891,6 +4797,6 @@
       <c r="M123" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest HYC.xlsx
+++ b/BackTest/2019-10-31 BackTest HYC.xlsx
@@ -1144,10 +1144,14 @@
         <v>-2509610.723110826</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="J23" t="n">
+        <v>5.67</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
@@ -1177,15 +1181,17 @@
         <v>-2502298.005340792</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>5.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
+        <v>5.67</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1218,7 +1224,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>5.71</v>
+        <v>5.67</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1256,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1358,10 +1358,14 @@
         <v>-2690108.419740792</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="J29" t="n">
+        <v>5.67</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
@@ -1391,11 +1395,19 @@
         <v>-2690108.419740792</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="J30" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1432,7 +1444,11 @@
       <c r="J31" t="n">
         <v>5.67</v>
       </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1467,13 +1483,9 @@
         <v>5.68</v>
       </c>
       <c r="J32" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>5.68</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1508,7 +1520,7 @@
         <v>5.68</v>
       </c>
       <c r="J33" t="n">
-        <v>5.67</v>
+        <v>5.68</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1551,7 +1563,11 @@
       <c r="J34" t="n">
         <v>5.68</v>
       </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1586,13 +1602,9 @@
         <v>5.71</v>
       </c>
       <c r="J35" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>5.71</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1627,7 +1639,7 @@
         <v>5.73</v>
       </c>
       <c r="J36" t="n">
-        <v>5.68</v>
+        <v>5.71</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1668,9 +1680,13 @@
         <v>5.74</v>
       </c>
       <c r="J37" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
+        <v>5.71</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1699,17 +1715,15 @@
         <v>-2627064.748040792</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>5.74</v>
+      </c>
       <c r="J38" t="n">
         <v>5.74</v>
       </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1861,9 +1875,11 @@
         <v>-2257265.671540792</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>5.77</v>
+      </c>
       <c r="J42" t="n">
         <v>5.74</v>
       </c>
@@ -1900,9 +1916,11 @@
         <v>-2257255.671540792</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>5.8</v>
+      </c>
       <c r="J43" t="n">
         <v>5.74</v>
       </c>
@@ -1939,9 +1957,11 @@
         <v>-2581762.892740792</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>5.87</v>
+      </c>
       <c r="J44" t="n">
         <v>5.74</v>
       </c>
@@ -1978,9 +1998,11 @@
         <v>-2766223.464440792</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>5.8</v>
+      </c>
       <c r="J45" t="n">
         <v>5.74</v>
       </c>
@@ -2017,9 +2039,11 @@
         <v>-2771429.554540792</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>5.74</v>
+      </c>
       <c r="J46" t="n">
         <v>5.74</v>
       </c>
@@ -2056,9 +2080,11 @@
         <v>-2717397.415540792</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>5.72</v>
+      </c>
       <c r="J47" t="n">
         <v>5.74</v>
       </c>
@@ -2095,9 +2121,11 @@
         <v>-2717377.415540792</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>5.78</v>
+      </c>
       <c r="J48" t="n">
         <v>5.74</v>
       </c>
@@ -2134,9 +2162,11 @@
         <v>-2717367.415540792</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>5.8</v>
+      </c>
       <c r="J49" t="n">
         <v>5.74</v>
       </c>
@@ -2173,9 +2203,11 @@
         <v>-2728071.495940792</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>5.81</v>
+      </c>
       <c r="J50" t="n">
         <v>5.74</v>
       </c>
@@ -2680,7 +2712,7 @@
         <v>5820710.289091787</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
@@ -2688,13 +2720,15 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>1.097787456445993</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1.037102473498233</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2719,17 +2753,11 @@
         <v>4090457.895191787</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2758,17 +2786,11 @@
         <v>4796594.290896162</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2797,17 +2819,11 @@
         <v>5803068.358196163</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2836,17 +2852,11 @@
         <v>5639545.770596162</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2875,17 +2885,11 @@
         <v>5305264.848896163</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2914,17 +2918,11 @@
         <v>5687233.567096163</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2953,17 +2951,11 @@
         <v>4851139.961096163</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2992,17 +2984,11 @@
         <v>4801940.902196163</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3031,17 +3017,11 @@
         <v>4730768.237996163</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3073,14 +3053,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3112,14 +3086,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3151,14 +3119,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3190,14 +3152,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3229,14 +3185,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3268,14 +3218,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3307,14 +3251,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3346,14 +3284,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3385,14 +3317,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3424,14 +3350,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3460,19 +3380,13 @@
         <v>4709301.371996163</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
-        <v>1.038554006968641</v>
+        <v>1</v>
       </c>
       <c r="M83" t="inlineStr"/>
     </row>
@@ -3499,7 +3413,7 @@
         <v>4709301.371996163</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3532,7 +3446,7 @@
         <v>4458273.104796164</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3565,7 +3479,7 @@
         <v>4461617.585796163</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3598,7 +3512,7 @@
         <v>4356510.263196164</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3631,7 +3545,7 @@
         <v>4292194.724096164</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>

--- a/BackTest/2019-10-31 BackTest HYC.xlsx
+++ b/BackTest/2019-10-31 BackTest HYC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M123"/>
+  <dimension ref="A1:L123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>82713.7901</v>
       </c>
       <c r="G2" t="n">
-        <v>-1992041.431710826</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>15402.4935</v>
       </c>
       <c r="G3" t="n">
-        <v>-1976638.938210826</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,19 @@
         <v>36421.4685</v>
       </c>
       <c r="G4" t="n">
-        <v>-1976638.938210826</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>5.7</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5.7</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +537,23 @@
         <v>7809.1147</v>
       </c>
       <c r="G5" t="n">
-        <v>-1968829.823510826</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>5.7</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +575,23 @@
         <v>365398.9648</v>
       </c>
       <c r="G6" t="n">
-        <v>-2334228.788310826</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>5.72</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +613,23 @@
         <v>41502.8767</v>
       </c>
       <c r="G7" t="n">
-        <v>-2292725.911610826</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>5.7</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +651,23 @@
         <v>346394.1321</v>
       </c>
       <c r="G8" t="n">
-        <v>-1946331.779510826</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>5.71</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +689,21 @@
         <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>-1946321.779510826</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +725,21 @@
         <v>17132.1418</v>
       </c>
       <c r="G10" t="n">
-        <v>-1946321.779510826</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +761,21 @@
         <v>1794.1468</v>
       </c>
       <c r="G11" t="n">
-        <v>-1946321.779510826</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +797,21 @@
         <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>-1946311.779510826</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +833,21 @@
         <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>-1946301.779510826</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +869,21 @@
         <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>-1946291.779510826</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +905,21 @@
         <v>15878.2905</v>
       </c>
       <c r="G15" t="n">
-        <v>-1962170.070010826</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +941,21 @@
         <v>184756.1597</v>
       </c>
       <c r="G16" t="n">
-        <v>-2146926.229710826</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +977,21 @@
         <v>5181.3471</v>
       </c>
       <c r="G17" t="n">
-        <v>-2141744.882610826</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +1013,21 @@
         <v>253515.5355</v>
       </c>
       <c r="G18" t="n">
-        <v>-2395260.418110826</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +1049,23 @@
         <v>10</v>
       </c>
       <c r="G19" t="n">
-        <v>-2395270.418110826</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>5.7</v>
+      </c>
+      <c r="I19" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1087,23 @@
         <v>139181.6428</v>
       </c>
       <c r="G20" t="n">
-        <v>-2534452.060910826</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>5.67</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1125,23 @@
         <v>16980.5604</v>
       </c>
       <c r="G21" t="n">
-        <v>-2517471.500510826</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>5.66</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1163,23 @@
         <v>2139.2226</v>
       </c>
       <c r="G22" t="n">
-        <v>-2519610.723110826</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>5.71</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,22 +1201,23 @@
         <v>10000</v>
       </c>
       <c r="G23" t="n">
-        <v>-2509610.723110826</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>5.67</v>
       </c>
       <c r="I23" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="J23" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>5.7</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1178,24 +1239,23 @@
         <v>7312.717770034</v>
       </c>
       <c r="G24" t="n">
-        <v>-2502298.005340792</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>5.71</v>
+      </c>
+      <c r="I24" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1217,24 +1277,23 @@
         <v>200</v>
       </c>
       <c r="G25" t="n">
-        <v>-2502098.005340792</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>5.74</v>
+      </c>
+      <c r="I25" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1256,18 +1315,23 @@
         <v>187652.1482</v>
       </c>
       <c r="G26" t="n">
-        <v>-2689750.153540792</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>5.75</v>
+      </c>
+      <c r="I26" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1289,18 +1353,23 @@
         <v>65.7338</v>
       </c>
       <c r="G27" t="n">
-        <v>-2689684.419740792</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>5.68</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1322,18 +1391,23 @@
         <v>424</v>
       </c>
       <c r="G28" t="n">
-        <v>-2690108.419740792</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>5.71</v>
+      </c>
+      <c r="I28" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1355,22 +1429,23 @@
         <v>2361</v>
       </c>
       <c r="G29" t="n">
-        <v>-2690108.419740792</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>5.67</v>
       </c>
       <c r="I29" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="J29" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>5.7</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1392,26 +1467,23 @@
         <v>1104</v>
       </c>
       <c r="G30" t="n">
-        <v>-2690108.419740792</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>5.67</v>
       </c>
       <c r="I30" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="J30" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>5.7</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1433,26 +1505,23 @@
         <v>69</v>
       </c>
       <c r="G31" t="n">
-        <v>-2690039.419740792</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>5.67</v>
       </c>
       <c r="I31" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="J31" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>5.7</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1474,22 +1543,23 @@
         <v>1035</v>
       </c>
       <c r="G32" t="n">
-        <v>-2690039.419740792</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>5.68</v>
       </c>
       <c r="I32" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="J32" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>5.7</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1511,26 +1581,23 @@
         <v>61264.3946</v>
       </c>
       <c r="G33" t="n">
-        <v>-2690039.419740792</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>5.68</v>
       </c>
       <c r="I33" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="J33" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>5.7</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1552,26 +1619,23 @@
         <v>14292.166</v>
       </c>
       <c r="G34" t="n">
-        <v>-2675747.253740792</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>5.68</v>
       </c>
       <c r="I34" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="J34" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>5.7</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1593,22 +1657,23 @@
         <v>48396.5057</v>
       </c>
       <c r="G35" t="n">
-        <v>-2627350.748040792</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>5.71</v>
       </c>
       <c r="I35" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="J35" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>5.7</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1630,26 +1695,23 @@
         <v>286</v>
       </c>
       <c r="G36" t="n">
-        <v>-2627064.748040792</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>5.73</v>
       </c>
       <c r="I36" t="n">
-        <v>5.73</v>
-      </c>
-      <c r="J36" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>5.7</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1671,26 +1733,23 @@
         <v>10</v>
       </c>
       <c r="G37" t="n">
-        <v>-2627064.748040792</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>5.74</v>
       </c>
       <c r="I37" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="J37" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>5.7</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1712,22 +1771,23 @@
         <v>138374.1946</v>
       </c>
       <c r="G38" t="n">
-        <v>-2627064.748040792</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>5.74</v>
       </c>
       <c r="I38" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="J38" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>5.7</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1749,26 +1809,21 @@
         <v>50577.9842</v>
       </c>
       <c r="G39" t="n">
-        <v>-2677642.732240792</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="J39" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>5.7</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1790,26 +1845,21 @@
         <v>8695.652173913</v>
       </c>
       <c r="G40" t="n">
-        <v>-2668947.080066879</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="n">
         <v>5.7</v>
       </c>
-      <c r="J40" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1831,26 +1881,21 @@
         <v>122650.953226087</v>
       </c>
       <c r="G41" t="n">
-        <v>-2546296.126840792</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="J41" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>5.7</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1872,26 +1917,21 @@
         <v>289030.4553</v>
       </c>
       <c r="G42" t="n">
-        <v>-2257265.671540792</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="J42" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>5.7</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1913,26 +1953,21 @@
         <v>10</v>
       </c>
       <c r="G43" t="n">
-        <v>-2257255.671540792</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="J43" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>5.7</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1954,26 +1989,21 @@
         <v>324507.2212</v>
       </c>
       <c r="G44" t="n">
-        <v>-2581762.892740792</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="J44" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>5.7</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1995,26 +2025,21 @@
         <v>184460.5717</v>
       </c>
       <c r="G45" t="n">
-        <v>-2766223.464440792</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="J45" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>5.7</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2036,26 +2061,21 @@
         <v>5206.0901</v>
       </c>
       <c r="G46" t="n">
-        <v>-2771429.554540792</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="J46" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>5.7</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2077,26 +2097,21 @@
         <v>54032.139</v>
       </c>
       <c r="G47" t="n">
-        <v>-2717397.415540792</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="J47" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>5.7</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2118,26 +2133,21 @@
         <v>20</v>
       </c>
       <c r="G48" t="n">
-        <v>-2717377.415540792</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="J48" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>5.7</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2159,26 +2169,21 @@
         <v>10</v>
       </c>
       <c r="G49" t="n">
-        <v>-2717367.415540792</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="J49" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>5.7</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2200,26 +2205,21 @@
         <v>10704.0804</v>
       </c>
       <c r="G50" t="n">
-        <v>-2728071.495940792</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="J50" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>5.7</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2241,24 +2241,21 @@
         <v>309586.6245</v>
       </c>
       <c r="G51" t="n">
-        <v>-2418484.871440792</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2280,24 +2277,21 @@
         <v>52500</v>
       </c>
       <c r="G52" t="n">
-        <v>-2470984.871440792</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2319,24 +2313,21 @@
         <v>3883398.8008</v>
       </c>
       <c r="G53" t="n">
-        <v>1412413.929359208</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2358,24 +2349,21 @@
         <v>1269977.782</v>
       </c>
       <c r="G54" t="n">
-        <v>2682391.711359208</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2397,24 +2385,21 @@
         <v>1446885.51833258</v>
       </c>
       <c r="G55" t="n">
-        <v>4129277.229691788</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2436,24 +2421,21 @@
         <v>204582.2699</v>
       </c>
       <c r="G56" t="n">
-        <v>3924694.959791787</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2475,24 +2457,21 @@
         <v>1967838.5083</v>
       </c>
       <c r="G57" t="n">
-        <v>5892533.468091788</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2514,24 +2493,21 @@
         <v>1499820.8045</v>
       </c>
       <c r="G58" t="n">
-        <v>4392712.663591787</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2553,24 +2529,21 @@
         <v>732854.6831</v>
       </c>
       <c r="G59" t="n">
-        <v>5125567.346691787</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2592,24 +2565,21 @@
         <v>499398.0428</v>
       </c>
       <c r="G60" t="n">
-        <v>4626169.303891787</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2631,24 +2601,21 @@
         <v>786982.6353</v>
       </c>
       <c r="G61" t="n">
-        <v>5413151.939191788</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2670,24 +2637,21 @@
         <v>2133880.7905</v>
       </c>
       <c r="G62" t="n">
-        <v>7547032.729691788</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2709,26 +2673,21 @@
         <v>1726322.4406</v>
       </c>
       <c r="G63" t="n">
-        <v>5820710.289091787</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1.097787456445993</v>
-      </c>
-      <c r="M63" t="n">
-        <v>1.037102473498233</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2750,18 +2709,21 @@
         <v>1730252.3939</v>
       </c>
       <c r="G64" t="n">
-        <v>4090457.895191787</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2783,18 +2745,21 @@
         <v>706136.395704375</v>
       </c>
       <c r="G65" t="n">
-        <v>4796594.290896162</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2816,18 +2781,23 @@
         <v>1006474.0673</v>
       </c>
       <c r="G66" t="n">
-        <v>5803068.358196163</v>
-      </c>
-      <c r="H66" t="n">
         <v>2</v>
       </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1.105526315789474</v>
+      </c>
       <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>1.008818342151675</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2849,18 +2819,15 @@
         <v>163522.5876</v>
       </c>
       <c r="G67" t="n">
-        <v>5639545.770596162</v>
-      </c>
-      <c r="H67" t="n">
         <v>2</v>
       </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2882,18 +2849,15 @@
         <v>334280.9217</v>
       </c>
       <c r="G68" t="n">
-        <v>5305264.848896163</v>
-      </c>
-      <c r="H68" t="n">
         <v>2</v>
       </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2915,18 +2879,15 @@
         <v>381968.7182</v>
       </c>
       <c r="G69" t="n">
-        <v>5687233.567096163</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2948,18 +2909,15 @@
         <v>836093.606</v>
       </c>
       <c r="G70" t="n">
-        <v>4851139.961096163</v>
-      </c>
-      <c r="H70" t="n">
         <v>2</v>
       </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2981,18 +2939,15 @@
         <v>49199.0589</v>
       </c>
       <c r="G71" t="n">
-        <v>4801940.902196163</v>
-      </c>
-      <c r="H71" t="n">
         <v>2</v>
       </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3014,18 +2969,15 @@
         <v>71172.6642</v>
       </c>
       <c r="G72" t="n">
-        <v>4730768.237996163</v>
-      </c>
-      <c r="H72" t="n">
         <v>2</v>
       </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3047,18 +2999,15 @@
         <v>445552.778</v>
       </c>
       <c r="G73" t="n">
-        <v>4285215.459996163</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3080,18 +3029,15 @@
         <v>762268.3545</v>
       </c>
       <c r="G74" t="n">
-        <v>5047483.814496163</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3113,18 +3059,15 @@
         <v>407913.9766</v>
       </c>
       <c r="G75" t="n">
-        <v>4639569.837896164</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3146,18 +3089,15 @@
         <v>88935.5986</v>
       </c>
       <c r="G76" t="n">
-        <v>4728505.436496164</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3179,18 +3119,15 @@
         <v>20</v>
       </c>
       <c r="G77" t="n">
-        <v>4728485.436496164</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3212,18 +3149,15 @@
         <v>10</v>
       </c>
       <c r="G78" t="n">
-        <v>4728475.436496164</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3245,18 +3179,15 @@
         <v>21742.5273</v>
       </c>
       <c r="G79" t="n">
-        <v>4750217.963796164</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3278,18 +3209,15 @@
         <v>24340.2343</v>
       </c>
       <c r="G80" t="n">
-        <v>4750217.963796164</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3311,18 +3239,15 @@
         <v>10075.1308</v>
       </c>
       <c r="G81" t="n">
-        <v>4740142.832996164</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3344,18 +3269,15 @@
         <v>10</v>
       </c>
       <c r="G82" t="n">
-        <v>4740152.832996164</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3377,18 +3299,15 @@
         <v>30851.461</v>
       </c>
       <c r="G83" t="n">
-        <v>4709301.371996163</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,18 +3329,15 @@
         <v>7171.8839</v>
       </c>
       <c r="G84" t="n">
-        <v>4709301.371996163</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3443,18 +3359,15 @@
         <v>251028.2672</v>
       </c>
       <c r="G85" t="n">
-        <v>4458273.104796164</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3476,18 +3389,15 @@
         <v>3344.481</v>
       </c>
       <c r="G86" t="n">
-        <v>4461617.585796163</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3509,18 +3419,15 @@
         <v>105107.3226</v>
       </c>
       <c r="G87" t="n">
-        <v>4356510.263196164</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3542,18 +3449,15 @@
         <v>64315.5391</v>
       </c>
       <c r="G88" t="n">
-        <v>4292194.724096164</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3575,18 +3479,15 @@
         <v>10</v>
       </c>
       <c r="G89" t="n">
-        <v>4292204.724096164</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3608,18 +3509,15 @@
         <v>20</v>
       </c>
       <c r="G90" t="n">
-        <v>4292224.724096164</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3641,18 +3539,15 @@
         <v>10</v>
       </c>
       <c r="G91" t="n">
-        <v>4292214.724096164</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3674,18 +3569,15 @@
         <v>5000</v>
       </c>
       <c r="G92" t="n">
-        <v>4287214.724096164</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3707,18 +3599,15 @@
         <v>77734.0336</v>
       </c>
       <c r="G93" t="n">
-        <v>4364948.757696164</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3740,18 +3629,15 @@
         <v>5042.3785</v>
       </c>
       <c r="G94" t="n">
-        <v>4364948.757696164</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3773,18 +3659,15 @@
         <v>69256.83719999999</v>
       </c>
       <c r="G95" t="n">
-        <v>4295691.920496164</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3806,18 +3689,15 @@
         <v>10</v>
       </c>
       <c r="G96" t="n">
-        <v>4295701.920496164</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3839,18 +3719,15 @@
         <v>253906.8739</v>
       </c>
       <c r="G97" t="n">
-        <v>4041795.046596164</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3872,18 +3749,15 @@
         <v>255462.144</v>
       </c>
       <c r="G98" t="n">
-        <v>3786332.902596164</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3905,18 +3779,15 @@
         <v>37181.2037</v>
       </c>
       <c r="G99" t="n">
-        <v>3823514.106296164</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3938,18 +3809,15 @@
         <v>10</v>
       </c>
       <c r="G100" t="n">
-        <v>3823524.106296164</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3971,18 +3839,15 @@
         <v>64690.2684</v>
       </c>
       <c r="G101" t="n">
-        <v>3888214.374696164</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4004,18 +3869,15 @@
         <v>120952.8497</v>
       </c>
       <c r="G102" t="n">
-        <v>4009167.224396164</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4037,18 +3899,15 @@
         <v>1732.0404</v>
       </c>
       <c r="G103" t="n">
-        <v>4010899.264796164</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4070,18 +3929,15 @@
         <v>4141.7081</v>
       </c>
       <c r="G104" t="n">
-        <v>4006757.556696164</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4103,18 +3959,15 @@
         <v>191038.0744</v>
       </c>
       <c r="G105" t="n">
-        <v>3815719.482296164</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4136,18 +3989,15 @@
         <v>18643.691270307</v>
       </c>
       <c r="G106" t="n">
-        <v>3834363.173566471</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4169,18 +4019,15 @@
         <v>438.1601</v>
       </c>
       <c r="G107" t="n">
-        <v>3834363.173566471</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4202,18 +4049,15 @@
         <v>438.8752</v>
       </c>
       <c r="G108" t="n">
-        <v>3834802.048766471</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4235,18 +4079,15 @@
         <v>209247.0882</v>
       </c>
       <c r="G109" t="n">
-        <v>3625554.960566471</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4268,18 +4109,15 @@
         <v>342.5498</v>
       </c>
       <c r="G110" t="n">
-        <v>3625212.410766471</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4301,18 +4139,15 @@
         <v>140782.8562</v>
       </c>
       <c r="G111" t="n">
-        <v>3484429.554566471</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4334,18 +4169,15 @@
         <v>42761.9334</v>
       </c>
       <c r="G112" t="n">
-        <v>3484429.554566471</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4367,18 +4199,15 @@
         <v>127062.0161</v>
       </c>
       <c r="G113" t="n">
-        <v>3484429.554566471</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4400,18 +4229,15 @@
         <v>292.7813</v>
       </c>
       <c r="G114" t="n">
-        <v>3484429.554566471</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4433,18 +4259,15 @@
         <v>80666.6293</v>
       </c>
       <c r="G115" t="n">
-        <v>3403762.925266471</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4466,18 +4289,15 @@
         <v>31237.4737</v>
       </c>
       <c r="G116" t="n">
-        <v>3403762.925266471</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4499,18 +4319,15 @@
         <v>178299.2066</v>
       </c>
       <c r="G117" t="n">
-        <v>3403762.925266471</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4532,18 +4349,15 @@
         <v>10</v>
       </c>
       <c r="G118" t="n">
-        <v>3403772.925266471</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4565,18 +4379,15 @@
         <v>287.5436</v>
       </c>
       <c r="G119" t="n">
-        <v>3404060.468866471</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4598,18 +4409,15 @@
         <v>65343.1423</v>
       </c>
       <c r="G120" t="n">
-        <v>3338717.326566471</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4631,18 +4439,15 @@
         <v>12710.6136</v>
       </c>
       <c r="G121" t="n">
-        <v>3326006.712966471</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4664,18 +4469,15 @@
         <v>14231.7869</v>
       </c>
       <c r="G122" t="n">
-        <v>3340238.499866472</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4697,18 +4499,15 @@
         <v>3964.54</v>
       </c>
       <c r="G123" t="n">
-        <v>3336273.959866472</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
